--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shortcuts\Documents\GitHub\rocket_project\Engine Sizing Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d769e2cd35da33bf/Documents/GitHub/engine-sizing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6B16A1-75D3-478B-9931-333A251A94D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3C6B16A1-75D3-478B-9931-333A251A94D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B51951F-728E-4BEA-935A-4FC06F82F5F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="139">
   <si>
     <t xml:space="preserve">   Holistic Engine Logic Program (HELP)</t>
   </si>
@@ -203,28 +203,572 @@
     <t>pressure drop as percentage of chamber pressure</t>
   </si>
   <si>
-    <t>Locus Distance:</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
-    <t>emperically derived function of diameter</t>
-  </si>
-  <si>
-    <t>Skip Distance:</t>
-  </si>
-  <si>
-    <t>C/S Ratio:</t>
-  </si>
-  <si>
-    <t>Orifice Type:</t>
-  </si>
-  <si>
     <t>options: "holes", "slots"</t>
   </si>
   <si>
     <t>discharge coefficient of orifices</t>
+  </si>
+  <si>
+    <t>Spray Angle:</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>spray angle of propellants from chamber center-line</t>
+  </si>
+  <si>
+    <t>* engine propellant and geometrical characteristics are derived from main sizing</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>lbf</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>thrust of engine</t>
+  </si>
+  <si>
+    <t>exit pressure</t>
+  </si>
+  <si>
+    <t>ambient pressure</t>
+  </si>
+  <si>
+    <t>burn time</t>
+  </si>
+  <si>
+    <t>Propellants</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Engine Sizing Parameters</t>
+  </si>
+  <si>
+    <t>Performance Specifications</t>
+  </si>
+  <si>
+    <t>Sizing Method:</t>
+  </si>
+  <si>
+    <t>c* eff.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>c* efficiency</t>
+  </si>
+  <si>
+    <t>cF eff.</t>
+  </si>
+  <si>
+    <t>cF efficiency</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>oxidizer to fuel ratio</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Oxidizer</t>
+  </si>
+  <si>
+    <t>fuel choice (see table below)</t>
+  </si>
+  <si>
+    <t>2nd fuel choice (normally disregard this)</t>
+  </si>
+  <si>
+    <t>Fuel Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t>Fuel</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>oxidizer choice (see table below)</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>Geometry Type:</t>
+  </si>
+  <si>
+    <t>L*</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>throat</t>
+    </r>
+  </si>
+  <si>
+    <t>characteristic length of chamber</t>
+  </si>
+  <si>
+    <r>
+      <t>Pct</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bell</t>
+    </r>
+  </si>
+  <si>
+    <t>conical nozzle half-angle (leave this alone)</t>
+  </si>
+  <si>
+    <t>percent of conical nozzle length (leave this alone)</t>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>conv</t>
+    </r>
+  </si>
+  <si>
+    <t>convergence angle</t>
+  </si>
+  <si>
+    <t>length of straight throat section (only for crude nozzles)</t>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>half</t>
+    </r>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Conical</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">options: "contraction", "chamber", "throat" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*see note</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">options: "bell", "conical", "crude" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*see note</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>throat diameter (when sizing method "throat" is enabled)</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>chamber inner diameter (when sizing method "chamber" is enabled)</t>
+  </si>
+  <si>
+    <t>contraction ratio (when sizing method "contraction" is enabled)</t>
+  </si>
+  <si>
+    <t>* "bell" sizes a normal bell nozzle curve, "conical" sizes a conical engine with a curved throat and conical nozzle, and "crude" sizes an conical engine made entirely of straight sections</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">exit bell angle </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*see note</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">initial bell angle </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*see note</t>
+    </r>
+  </si>
+  <si>
+    <t>* initial and exit bell angles are derived emperically from http://www.aspirespace.org.uk/downloads/Thrust%20optimised%20parabolic%20nozzle.pdf</t>
+  </si>
+  <si>
+    <t>Detailed</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fuel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oxidizer</t>
+    </r>
+  </si>
+  <si>
+    <t>fuel injection temperature</t>
+  </si>
+  <si>
+    <t>oxidizer injection temperature</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>* variables in the "detailed" category are not necessary for general engine sizing but may be used for injector, cooling, or fluid system sizing</t>
+  </si>
+  <si>
+    <t>CEA Propellant Inputs</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Jet-A(L)</t>
+  </si>
+  <si>
+    <t>RP-1</t>
+  </si>
+  <si>
+    <t>CH4(L)</t>
+  </si>
+  <si>
+    <t>H2(L)</t>
+  </si>
+  <si>
+    <t>This program interfaces directly with CEA to provide combustion characteristics and as such is very picky with input. Below is a list of common fuel and oxidizer strings that won't make the program sad:</t>
+  </si>
+  <si>
+    <t>Oxidizers</t>
+  </si>
+  <si>
+    <t>O2(L)</t>
+  </si>
+  <si>
+    <t>O2(G)</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>H2O2(L)</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Liquid Methane</t>
+  </si>
+  <si>
+    <t>Gaseous Methane</t>
+  </si>
+  <si>
+    <t>Liquid Hydrogen</t>
+  </si>
+  <si>
+    <t>Gaseous Hydrogen</t>
+  </si>
+  <si>
+    <t>Liquid Oxygen</t>
+  </si>
+  <si>
+    <t>Gaseous Oxygen</t>
+  </si>
+  <si>
+    <t>Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>Hydrogen Peroxide (HTP)</t>
+  </si>
+  <si>
+    <t>Jet-A (Kerosene)</t>
+  </si>
+  <si>
+    <t>RP-1 (Kerosene)</t>
+  </si>
+  <si>
+    <t>* if no fuel and/or injection temperature is set in the "detailed" section above, CEA will assume your propellants are room temperature or, if a cryogen, at their boiling point</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> percentage of second fuel in mixture (usually leave as 1)</t>
+  </si>
+  <si>
+    <t>I was bothered by this large uncanny white space, so please enjoy this F-1 engine schematic in its place &lt;3</t>
+  </si>
+  <si>
+    <t>* "contraction" sizes based off of contraction ratio, "chamber" sizes around a given chamber inner diameter, and "throat" sizes around a given throat diameter. You can size around both throat and chamber diameter if you select "throat" as your sizing method and keep a chamber diameter assigned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Holistic Engine Logic Program (HELP!)</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock</t>
+    </r>
+  </si>
+  <si>
+    <t>diameter of round bar stock as reference for crude nozzles</t>
+  </si>
+  <si>
+    <t>* if you see a yellow box anywhere, that indicates a super important parameter and is something you should probably assign a value to (or not, I'm not going to stop you)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>C2H5OH(L)</t>
   </si>
   <si>
     <r>
@@ -241,86 +785,10 @@
       </rPr>
       <t>d</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>Spray Angle:</t>
-  </si>
-  <si>
-    <t>deg</t>
-  </si>
-  <si>
-    <t>spray angle of propellants from chamber center-line</t>
-  </si>
-  <si>
-    <t>* engine propellant and geometrical characteristics are derived from main sizing</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>lbf</t>
-  </si>
-  <si>
-    <t>psi</t>
-  </si>
-  <si>
-    <t>sec</t>
-  </si>
-  <si>
-    <t>thrust of engine</t>
-  </si>
-  <si>
-    <t>exit pressure</t>
-  </si>
-  <si>
-    <t>ambient pressure</t>
-  </si>
-  <si>
-    <t>burn time</t>
-  </si>
-  <si>
-    <t>Propellants</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Engine Sizing Parameters</t>
-  </si>
-  <si>
-    <t>Performance Specifications</t>
-  </si>
-  <si>
-    <t>Sizing Method:</t>
-  </si>
-  <si>
-    <t>c* eff.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>c* efficiency</t>
-  </si>
-  <si>
-    <t>cF eff.</t>
-  </si>
-  <si>
-    <t>cF efficiency</t>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
     </r>
     <r>
       <rPr>
@@ -331,30 +799,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
-    <t>oxidizer to fuel ratio</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Oxidizer</t>
-  </si>
-  <si>
-    <t>fuel choice (see table below)</t>
-  </si>
-  <si>
-    <t>2nd fuel choice (normally disregard this)</t>
-  </si>
-  <si>
-    <t>Fuel Ratio</t>
-  </si>
-  <si>
-    <r>
-      <t>Fuel</t>
+      <t>locus</t>
+    </r>
+  </si>
+  <si>
+    <t>emperically derived function of impingement distance</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
     </r>
     <r>
       <rPr>
@@ -365,43 +818,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>oxidizer choice (see table below)</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>Geometry Type:</t>
-  </si>
-  <si>
-    <t>L*</t>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>throat</t>
-    </r>
-  </si>
-  <si>
-    <t>characteristic length of chamber</t>
-  </si>
-  <si>
-    <r>
-      <t>Pct</t>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆P/P</t>
     </r>
     <r>
       <rPr>
@@ -410,413 +832,43 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bell</t>
-    </r>
-  </si>
-  <si>
-    <t>conical nozzle half-angle (leave this alone)</t>
-  </si>
-  <si>
-    <t>percent of conical nozzle length (leave this alone)</t>
-  </si>
-  <si>
-    <r>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>conv</t>
-    </r>
-  </si>
-  <si>
-    <t>convergence angle</t>
-  </si>
-  <si>
-    <t>length of straight throat section (only for crude nozzles)</t>
-  </si>
-  <si>
-    <r>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>half</t>
-    </r>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Conical</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">options: "contraction", "chamber", "throat" </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*see note</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">options: "bell", "conical", "crude" </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*see note</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-  </si>
-  <si>
-    <t>throat diameter (when sizing method "throat" is enabled)</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>c</t>
     </r>
   </si>
   <si>
-    <t>chamber inner diameter (when sizing method "chamber" is enabled)</t>
-  </si>
-  <si>
-    <t>contraction ratio (when sizing method "contraction" is enabled)</t>
-  </si>
-  <si>
-    <t>* "bell" sizes a normal bell nozzle curve, "conical" sizes a conical engine with a curved throat and conical nozzle, and "crude" sizes an conical engine made entirely of straight sections</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">exit bell angle </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*see note</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">initial bell angle </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*see note</t>
-    </r>
-  </si>
-  <si>
-    <t>* initial and exit bell angles are derived emperically from http://www.aspirespace.org.uk/downloads/Thrust%20optimised%20parabolic%20nozzle.pdf</t>
-  </si>
-  <si>
-    <t>Detailed</t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fuel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oxidizer</t>
-    </r>
-  </si>
-  <si>
-    <t>fuel injection temperature</t>
-  </si>
-  <si>
-    <t>oxidizer injection temperature</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>* variables in the "detailed" category are not necessary for general engine sizing but may be used for injector, cooling, or fluid system sizing</t>
-  </si>
-  <si>
-    <t>CEA Propellant Inputs</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Jet-A(L)</t>
-  </si>
-  <si>
-    <t>RP-1</t>
-  </si>
-  <si>
-    <t>CH4(L)</t>
-  </si>
-  <si>
-    <t>H2(L)</t>
-  </si>
-  <si>
-    <t>This program interfaces directly with CEA to provide combustion characteristics and as such is very picky with input. Below is a list of common fuel and oxidizer strings that won't make the program sad:</t>
-  </si>
-  <si>
-    <t>Oxidizers</t>
-  </si>
-  <si>
-    <t>O2(L)</t>
-  </si>
-  <si>
-    <t>O2(G)</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>H2O2(L)</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>Liquid Methane</t>
-  </si>
-  <si>
-    <t>Gaseous Methane</t>
-  </si>
-  <si>
-    <t>Liquid Hydrogen</t>
-  </si>
-  <si>
-    <t>Gaseous Hydrogen</t>
-  </si>
-  <si>
-    <t>Liquid Oxygen</t>
-  </si>
-  <si>
-    <t>Gaseous Oxygen</t>
-  </si>
-  <si>
-    <t>Nitrous Oxide</t>
-  </si>
-  <si>
-    <t>Hydrogen Peroxide (HTP)</t>
-  </si>
-  <si>
-    <t>Jet-A (Kerosene)</t>
-  </si>
-  <si>
-    <t>RP-1 (Kerosene)</t>
-  </si>
-  <si>
-    <t>* if no fuel and/or injection temperature is set in the "detailed" section above, CEA will assume your propellants are room temperature or, if a cryogen, at their boiling point</t>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ex</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> percentage of second fuel in mixture (usually leave as 1)</t>
-  </si>
-  <si>
-    <t>I was bothered by this large uncanny white space, so please enjoy this F-1 engine schematic in its place &lt;3</t>
-  </si>
-  <si>
-    <t>* "contraction" sizes based off of contraction ratio, "chamber" sizes around a given chamber inner diameter, and "throat" sizes around a given throat diameter. You can size around both throat and chamber diameter if you select "throat" as your sizing method and keep a chamber diameter assigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Holistic Engine Logic Program (HELP!)</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stock</t>
-    </r>
-  </si>
-  <si>
-    <t>diameter of round bar stock as reference for crude nozzles</t>
-  </si>
-  <si>
-    <t>* if you see a yellow box anywhere, that indicates a super important parameter and is something you should probably assign a value to (or not, I'm not going to stop you)</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>C2H5OH(L)</t>
+    <t>Orifice Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># inlets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of inlets on inner and outer element </t>
+  </si>
+  <si>
+    <t>deg.</t>
+  </si>
+  <si>
+    <t>Spray angle if the inner swirl element</t>
+  </si>
+  <si>
+    <t>Rn</t>
+  </si>
+  <si>
+    <t>Coefficient of nozzle opening of both elements</t>
+  </si>
+  <si>
+    <t># elements</t>
+  </si>
+  <si>
+    <t>Number of total swirl elements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,6 +999,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1097,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1157,6 +1222,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1187,17 +1253,18 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,46 +1622,46 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:3" s="35" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-    </row>
-    <row r="3" spans="1:3" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
+    <row r="2" spans="1:3" s="37" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+    </row>
+    <row r="3" spans="1:3" s="39" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="40"/>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+      <c r="C5" s="41"/>
+    </row>
+    <row r="7" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="41"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="42"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1610,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1618,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1641,194 +1708,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FB38BB-BE64-4050-8878-0E451113B9D1}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" style="17" customWidth="1"/>
     <col min="2" max="2" width="22" style="17" customWidth="1"/>
     <col min="3" max="3" width="11" style="17" customWidth="1"/>
     <col min="4" max="4" width="7" style="17" customWidth="1"/>
     <col min="5" max="5" width="41" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="17"/>
-    <col min="9" max="9" width="7.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="17"/>
+    <col min="9" max="9" width="7.1796875" style="17" customWidth="1"/>
     <col min="10" max="10" width="45" style="19" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="17"/>
-    <col min="12" max="12" width="19.7109375" style="17" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="17"/>
-    <col min="15" max="15" width="53.42578125" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="17"/>
+    <col min="11" max="11" width="9.1796875" style="17"/>
+    <col min="12" max="12" width="19.7265625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="17"/>
+    <col min="15" max="15" width="53.453125" style="19" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="40"/>
+    <row r="1" spans="1:15" s="35" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="37" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" s="39" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="30"/>
       <c r="E7" s="19"/>
       <c r="G7" s="24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
       <c r="L7" s="24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7" s="27"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
       <c r="L9" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="1"/>
       <c r="J10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="1"/>
       <c r="O10" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="1"/>
       <c r="J11" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="1"/>
       <c r="O11" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1">
         <v>100</v>
@@ -1837,138 +1904,138 @@
         <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M13" s="26"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="1"/>
       <c r="J14" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="G16" s="20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
       <c r="L16" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="1"/>
       <c r="O16" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
       <c r="L20" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="21"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
+    <row r="21" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
       <c r="L21" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M21" s="13">
         <v>80</v>
@@ -1977,247 +2044,247 @@
         <v>16</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M22" s="13"/>
       <c r="N22" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G23" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
       <c r="L23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24"/>
-      <c r="G24" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
+      <c r="G24" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+    </row>
+    <row r="25" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
       <c r="L25" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M25" s="26"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E26"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
       <c r="L26" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M26" s="13">
         <v>15</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G27" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
       <c r="L27" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M27" s="10"/>
       <c r="N27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+        <v>90</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
       <c r="L28" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G29" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
     </row>
-    <row r="30" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G30" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H30" s="46" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
-      <c r="L30" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-    </row>
-    <row r="31" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+    </row>
+    <row r="31" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G31" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-    </row>
-    <row r="32" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+    </row>
+    <row r="32" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="46" t="s">
         <v>104</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>110</v>
       </c>
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
     </row>
-    <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G33" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H33" s="46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I33" s="46"/>
       <c r="J33" s="46"/>
-      <c r="L33" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-    </row>
-    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+    </row>
+    <row r="34" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G34" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-    </row>
-    <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+    </row>
+    <row r="35" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G36" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
-      <c r="L36" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-    </row>
-    <row r="37" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
+      <c r="L36" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+    </row>
+    <row r="37" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
       <c r="G37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-    </row>
-    <row r="38" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
+        <v>96</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+    </row>
+    <row r="38" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
       <c r="G38" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H38" s="46" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I38" s="46"/>
       <c r="J38" s="46"/>
@@ -2226,56 +2293,46 @@
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
+    <row r="39" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
       <c r="G39" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H39" s="46" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I39" s="46"/>
       <c r="J39" s="46"/>
     </row>
-    <row r="40" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G40" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H40" s="46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I40" s="46"/>
       <c r="J40" s="46"/>
     </row>
-    <row r="42" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+    <row r="42" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G42" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+    </row>
+    <row r="43" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G42:J43"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="L36:O37"/>
     <mergeCell ref="G20:J21"/>
@@ -2287,6 +2344,16 @@
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="L30:O31"/>
     <mergeCell ref="L33:O34"/>
+    <mergeCell ref="G42:J43"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2296,54 +2363,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2558753-C1A4-4F1A-A391-5DC27086ECDF}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="31.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="4.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="7.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="19.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="1"/>
+    <col min="15" max="15" width="31.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:10" s="35" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-    </row>
-    <row r="3" spans="1:10" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
+    <row r="2" spans="1:10" s="37" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="41"/>
       <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2357,21 +2424,23 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="G8" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2381,28 +2450,33 @@
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2410,37 +2484,47 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>19</v>
+    <row r="12" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="1" t="s">
+    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G14" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G16" s="3" t="s">
         <v>6</v>
       </c>
@@ -2448,23 +2532,104 @@
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="1" t="s">
-        <v>26</v>
+    <row r="17" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G17" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G19" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G20" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="13">
+        <v>15</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>20</v>
+      <c r="J24" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d769e2cd35da33bf/Documents/GitHub/engine-sizing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shortcuts\Documents\GitHub\rocket_project\Engine Sizing Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3C6B16A1-75D3-478B-9931-333A251A94D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B51951F-728E-4BEA-935A-4FC06F82F5F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC6463C-9C65-4406-8068-F53D2FCA15BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
   <si>
     <t xml:space="preserve">   Holistic Engine Logic Program (HELP)</t>
   </si>
@@ -242,9 +242,6 @@
     <t>exit pressure</t>
   </si>
   <si>
-    <t>ambient pressure</t>
-  </si>
-  <si>
     <t>burn time</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
   </si>
   <si>
     <t>c* eff.</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>c* efficiency</t>
@@ -464,7 +458,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">options: "contraction", "chamber", "throat" </t>
+      <t xml:space="preserve">options: "bell", "conical", "crude" </t>
     </r>
     <r>
       <rPr>
@@ -480,7 +474,51 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">options: "bell", "conical", "crude" </t>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>throat diameter (when sizing method "throat" is enabled)</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>chamber inner diameter (when sizing method "chamber" is enabled)</t>
+  </si>
+  <si>
+    <t>contraction ratio (when sizing method "contraction" is enabled)</t>
+  </si>
+  <si>
+    <t>* "bell" sizes a normal bell nozzle curve, "conical" sizes a conical engine with a curved throat and conical nozzle, and "crude" sizes an conical engine made entirely of straight sections</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">exit bell angle </t>
     </r>
     <r>
       <rPr>
@@ -496,7 +534,29 @@
   </si>
   <si>
     <r>
-      <t>D</t>
+      <t xml:space="preserve">initial bell angle </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*see note</t>
+    </r>
+  </si>
+  <si>
+    <t>* initial and exit bell angles are derived emperically from http://www.aspirespace.org.uk/downloads/Thrust%20optimised%20parabolic%20nozzle.pdf</t>
+  </si>
+  <si>
+    <t>Detailed</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -507,15 +567,315 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>t</t>
-    </r>
-  </si>
-  <si>
-    <t>throat diameter (when sizing method "throat" is enabled)</t>
+      <t>fuel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oxidizer</t>
+    </r>
+  </si>
+  <si>
+    <t>fuel injection temperature</t>
+  </si>
+  <si>
+    <t>oxidizer injection temperature</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>CEA Propellant Inputs</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Jet-A(L)</t>
+  </si>
+  <si>
+    <t>RP-1</t>
+  </si>
+  <si>
+    <t>CH4(L)</t>
+  </si>
+  <si>
+    <t>H2(L)</t>
+  </si>
+  <si>
+    <t>This program interfaces directly with CEA to provide combustion characteristics and as such is very picky with input. Below is a list of common fuel and oxidizer strings that won't make the program sad:</t>
+  </si>
+  <si>
+    <t>Oxidizers</t>
+  </si>
+  <si>
+    <t>O2(L)</t>
+  </si>
+  <si>
+    <t>O2(G)</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>H2O2(L)</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Liquid Methane</t>
+  </si>
+  <si>
+    <t>Gaseous Methane</t>
+  </si>
+  <si>
+    <t>Liquid Hydrogen</t>
+  </si>
+  <si>
+    <t>Gaseous Hydrogen</t>
+  </si>
+  <si>
+    <t>Liquid Oxygen</t>
+  </si>
+  <si>
+    <t>Gaseous Oxygen</t>
+  </si>
+  <si>
+    <t>Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>Hydrogen Peroxide (HTP)</t>
+  </si>
+  <si>
+    <t>Jet-A (Kerosene)</t>
+  </si>
+  <si>
+    <t>RP-1 (Kerosene)</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> percentage of second fuel in mixture (usually leave as 1)</t>
+  </si>
+  <si>
+    <t>I was bothered by this large uncanny white space, so please enjoy this F-1 engine schematic in its place &lt;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Holistic Engine Logic Program (HELP!)</t>
   </si>
   <si>
     <r>
       <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock</t>
+    </r>
+  </si>
+  <si>
+    <t>diameter of round bar stock as reference for crude nozzles</t>
+  </si>
+  <si>
+    <t>* if you see a yellow box anywhere, that indicates a super important parameter and is something you should probably assign a value to (or not, I'm not going to stop you)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>C2H5OH(L)</t>
+  </si>
+  <si>
+    <t>Converging Method:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">options: "normal", "throat" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*see note</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">options: "contraction", "chamber" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*see note</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">* "normal" sizes your engine normally wheras "throat" will determine your thrust and mdot based off of your given throat size. Further, "contraction" sizes your converging section based off of contraction ratio and "chamber" sizes around a given chamber inner diameter. </t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locus</t>
+    </r>
+  </si>
+  <si>
+    <t>emperically derived function of impingement distance</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆P/P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>Orifice Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># inlets </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of inlets on inner and outer element </t>
+  </si>
+  <si>
+    <t>deg.</t>
+  </si>
+  <si>
+    <t>Spray angle if the inner swirl element</t>
+  </si>
+  <si>
+    <t>Rn</t>
+  </si>
+  <si>
+    <t>Coefficient of nozzle opening of both elements</t>
+  </si>
+  <si>
+    <t># elements</t>
+  </si>
+  <si>
+    <t>Number of total swirl elements</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -530,338 +890,13 @@
     </r>
   </si>
   <si>
-    <t>chamber inner diameter (when sizing method "chamber" is enabled)</t>
-  </si>
-  <si>
-    <t>contraction ratio (when sizing method "contraction" is enabled)</t>
-  </si>
-  <si>
-    <t>* "bell" sizes a normal bell nozzle curve, "conical" sizes a conical engine with a curved throat and conical nozzle, and "crude" sizes an conical engine made entirely of straight sections</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">exit bell angle </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*see note</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">initial bell angle </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*see note</t>
-    </r>
-  </si>
-  <si>
-    <t>* initial and exit bell angles are derived emperically from http://www.aspirespace.org.uk/downloads/Thrust%20optimised%20parabolic%20nozzle.pdf</t>
-  </si>
-  <si>
-    <t>Detailed</t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fuel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oxidizer</t>
-    </r>
-  </si>
-  <si>
-    <t>fuel injection temperature</t>
-  </si>
-  <si>
-    <t>oxidizer injection temperature</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>* variables in the "detailed" category are not necessary for general engine sizing but may be used for injector, cooling, or fluid system sizing</t>
-  </si>
-  <si>
-    <t>CEA Propellant Inputs</t>
-  </si>
-  <si>
-    <t>Fuels</t>
-  </si>
-  <si>
-    <t>Jet-A(L)</t>
-  </si>
-  <si>
-    <t>RP-1</t>
-  </si>
-  <si>
-    <t>CH4(L)</t>
-  </si>
-  <si>
-    <t>H2(L)</t>
-  </si>
-  <si>
-    <t>This program interfaces directly with CEA to provide combustion characteristics and as such is very picky with input. Below is a list of common fuel and oxidizer strings that won't make the program sad:</t>
-  </si>
-  <si>
-    <t>Oxidizers</t>
-  </si>
-  <si>
-    <t>O2(L)</t>
-  </si>
-  <si>
-    <t>O2(G)</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>H2O2(L)</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>Liquid Methane</t>
-  </si>
-  <si>
-    <t>Gaseous Methane</t>
-  </si>
-  <si>
-    <t>Liquid Hydrogen</t>
-  </si>
-  <si>
-    <t>Gaseous Hydrogen</t>
-  </si>
-  <si>
-    <t>Liquid Oxygen</t>
-  </si>
-  <si>
-    <t>Gaseous Oxygen</t>
-  </si>
-  <si>
-    <t>Nitrous Oxide</t>
-  </si>
-  <si>
-    <t>Hydrogen Peroxide (HTP)</t>
-  </si>
-  <si>
-    <t>Jet-A (Kerosene)</t>
-  </si>
-  <si>
-    <t>RP-1 (Kerosene)</t>
-  </si>
-  <si>
-    <t>* if no fuel and/or injection temperature is set in the "detailed" section above, CEA will assume your propellants are room temperature or, if a cryogen, at their boiling point</t>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ex</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> percentage of second fuel in mixture (usually leave as 1)</t>
-  </si>
-  <si>
-    <t>I was bothered by this large uncanny white space, so please enjoy this F-1 engine schematic in its place &lt;3</t>
-  </si>
-  <si>
-    <t>* "contraction" sizes based off of contraction ratio, "chamber" sizes around a given chamber inner diameter, and "throat" sizes around a given throat diameter. You can size around both throat and chamber diameter if you select "throat" as your sizing method and keep a chamber diameter assigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Holistic Engine Logic Program (HELP!)</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stock</t>
-    </r>
-  </si>
-  <si>
-    <t>diameter of round bar stock as reference for crude nozzles</t>
-  </si>
-  <si>
-    <t>* if you see a yellow box anywhere, that indicates a super important parameter and is something you should probably assign a value to (or not, I'm not going to stop you)</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>C2H5OH(L)</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>locus</t>
-    </r>
-  </si>
-  <si>
-    <t>emperically derived function of impingement distance</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>S</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∆P/P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>c</t>
-    </r>
-  </si>
-  <si>
-    <t>Orifice Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># inlets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of inlets on inner and outer element </t>
-  </si>
-  <si>
-    <t>deg.</t>
-  </si>
-  <si>
-    <t>Spray angle if the inner swirl element</t>
-  </si>
-  <si>
-    <t>Rn</t>
-  </si>
-  <si>
-    <t>Coefficient of nozzle opening of both elements</t>
-  </si>
-  <si>
-    <t># elements</t>
-  </si>
-  <si>
-    <t>Number of total swirl elements</t>
+    <t>chamber pressure</t>
+  </si>
+  <si>
+    <t>ambient pressure (usually leave blank)</t>
+  </si>
+  <si>
+    <t>* if no fuel and/or injection temperature is set in the "detailed" section above, the program will assume your propellants are room temperature or, if a cryogen, at their boiling point</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1177,38 +1212,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1222,7 +1240,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1253,18 +1288,22 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,15 +1331,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>205693</xdr:rowOff>
+      <xdr:colOff>621929</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:colOff>2098302</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:rowOff>226356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1330,8 +1369,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="752477" y="4796743"/>
-          <a:ext cx="4143373" cy="3871005"/>
+          <a:off x="902076" y="4643222"/>
+          <a:ext cx="4143373" cy="3853076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,49 +1658,49 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="2"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="35" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="37" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
     </row>
-    <row r="3" spans="1:3" s="39" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
     </row>
-    <row r="4" spans="1:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="41"/>
     </row>
-    <row r="7" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1677,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1685,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1706,196 +1745,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FB38BB-BE64-4050-8878-0E451113B9D1}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11" style="17" customWidth="1"/>
-    <col min="4" max="4" width="7" style="17" customWidth="1"/>
-    <col min="5" max="5" width="41" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="17"/>
-    <col min="9" max="9" width="7.1796875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="45" style="19" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="17"/>
-    <col min="12" max="12" width="19.7265625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" style="18" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="17"/>
-    <col min="15" max="15" width="53.453125" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="17"/>
+    <col min="1" max="1" width="4.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7" style="13" customWidth="1"/>
+    <col min="5" max="5" width="41" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="13"/>
+    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="45" style="15" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="13"/>
+    <col min="15" max="15" width="53.42578125" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="35" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="37" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
     </row>
-    <row r="3" spans="1:15" s="39" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
     </row>
-    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="24" t="s">
+      <c r="C7" s="23"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="L7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="L7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="11" t="s">
+      <c r="M7" s="20"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="32"/>
+        <v>138</v>
+      </c>
+      <c r="C9" s="25"/>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="L9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>139</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="L9" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="C10" s="25"/>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="H10" s="25"/>
       <c r="I10" s="1"/>
       <c r="J10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="M10" s="29"/>
       <c r="N10" s="1"/>
       <c r="O10" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="H11" s="25"/>
       <c r="I11" s="1"/>
       <c r="J11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="M11" s="29"/>
       <c r="N11" s="1"/>
       <c r="O11" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1">
         <v>100</v>
@@ -1904,456 +1951,456 @@
         <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
       <c r="J14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="L15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="43"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="43" t="s">
+        <v>116</v>
+      </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
-      <c r="G16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
+      <c r="G16" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
       <c r="L16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O16" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="G17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G18" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="M18" s="29"/>
       <c r="N18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="29"/>
+      <c r="N19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="43" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
-      <c r="L20" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-    </row>
-    <row r="21" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="29">
+        <v>80</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="13">
-        <v>80</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="L22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G23" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
+    </row>
+    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
       <c r="L23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M23" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="M23" s="29"/>
       <c r="N23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24"/>
-      <c r="G24" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-    </row>
-    <row r="25" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="L24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25"/>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
-      <c r="L25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="26"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="22"/>
-    </row>
-    <row r="26" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26"/>
+    </row>
+    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
       <c r="J26" s="45"/>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="33"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27"/>
+      <c r="G27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="L27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="29">
         <v>15</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-      <c r="L27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="10"/>
-      <c r="N27" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="O27" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="L28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M28" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="L28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="26"/>
       <c r="N28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="29"/>
+      <c r="N29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="L30" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-    </row>
-    <row r="31" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="L31" s="43"/>
+        <v>88</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="43" t="s">
+        <v>74</v>
+      </c>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
       <c r="O31" s="43"/>
     </row>
-    <row r="32" spans="3:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-    </row>
-    <row r="33" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+    </row>
+    <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="L33" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-    </row>
-    <row r="34" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="L34" s="43"/>
+        <v>95</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
       <c r="O34" s="43"/>
     </row>
-    <row r="35" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-    </row>
-    <row r="36" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
-      <c r="L36" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-    </row>
-    <row r="37" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
+    <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+    </row>
+    <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+    </row>
+    <row r="37" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="L37" s="43"/>
+        <v>92</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="L37" s="43" t="s">
+        <v>77</v>
+      </c>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
       <c r="O37" s="43"/>
     </row>
-    <row r="38" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="45"/>
+    <row r="38" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="45" t="s">
+        <v>112</v>
+      </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
       <c r="G38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-    </row>
-    <row r="39" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+    </row>
+    <row r="39" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
       <c r="G39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-    </row>
-    <row r="40" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+    </row>
+    <row r="40" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
       <c r="G40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-    </row>
-    <row r="42" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G42" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+    </row>
+    <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="43"/>
       <c r="H43" s="43"/>
       <c r="I43" s="43"/>
       <c r="J43" s="43"/>
     </row>
+    <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="11">
     <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="L36:O37"/>
+    <mergeCell ref="G43:J44"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B38:E40"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="L37:O38"/>
+    <mergeCell ref="G24:J26"/>
     <mergeCell ref="G20:J21"/>
-    <mergeCell ref="G24:J26"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="L30:O31"/>
-    <mergeCell ref="L33:O34"/>
-    <mergeCell ref="G42:J43"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="L31:O32"/>
+    <mergeCell ref="L34:O35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2365,43 +2412,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2558753-C1A4-4F1A-A391-5DC27086ECDF}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="1"/>
-    <col min="9" max="9" width="7.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="1"/>
-    <col min="12" max="12" width="19.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="1"/>
-    <col min="15" max="15" width="31.54296875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="19.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="31.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="35" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="37" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
     </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
     </row>
-    <row r="4" spans="1:10" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -2410,7 +2457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2424,23 +2471,23 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="G8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2450,18 +2497,18 @@
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33" t="s">
+      <c r="G9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2471,12 +2518,12 @@
       <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2484,47 +2531,41 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G12" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33" t="s">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G13" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33" t="s">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
       <c r="J14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G16" s="3" t="s">
         <v>6</v>
       </c>
@@ -2532,105 +2573,72 @@
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G17" s="33" t="s">
+    <row r="17" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="5" t="s">
+    </row>
+    <row r="18" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G18" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33" t="s">
+      <c r="J18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J18" s="5" t="s">
+    </row>
+    <row r="19" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G19" s="33" t="s">
+      <c r="H19"/>
+      <c r="I19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="5" t="s">
+    </row>
+    <row r="20" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G20" s="33" t="s">
+      <c r="H20"/>
+      <c r="I20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-    </row>
-    <row r="22" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G23" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="13">
-        <v>15</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="7:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G25" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>121</v>
-      </c>
+    </row>
+    <row r="22" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="29"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="27"/>
+      <c r="H24" s="26"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="29"/>
+      <c r="J25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shortcuts\Documents\GitHub\rocket_project\Engine Sizing Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC6463C-9C65-4406-8068-F53D2FCA15BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C4B39-461D-4E10-8FDB-3919AD85CAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="146">
   <si>
     <t xml:space="preserve">   Holistic Engine Logic Program (HELP)</t>
   </si>
@@ -272,22 +272,6 @@
     <t>cF efficiency</t>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
     <t>oxidizer to fuel ratio</t>
   </si>
   <si>
@@ -306,22 +290,6 @@
     <t>Fuel Ratio</t>
   </si>
   <si>
-    <r>
-      <t>Fuel</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>oxidizer choice (see table below)</t>
   </si>
   <si>
@@ -334,99 +302,19 @@
     <t>L*</t>
   </si>
   <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>throat</t>
-    </r>
-  </si>
-  <si>
     <t>characteristic length of chamber</t>
   </si>
   <si>
-    <r>
-      <t>Pct</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bell</t>
-    </r>
-  </si>
-  <si>
     <t>conical nozzle half-angle (leave this alone)</t>
   </si>
   <si>
     <t>percent of conical nozzle length (leave this alone)</t>
   </si>
   <si>
-    <r>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>conv</t>
-    </r>
-  </si>
-  <si>
     <t>convergence angle</t>
   </si>
   <si>
     <t>length of straight throat section (only for crude nozzles)</t>
-  </si>
-  <si>
-    <r>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e</t>
-    </r>
   </si>
   <si>
     <r>
@@ -473,39 +361,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-  </si>
-  <si>
     <t>throat diameter (when sizing method "throat" is enabled)</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
   </si>
   <si>
     <t>chamber inner diameter (when sizing method "chamber" is enabled)</t>
@@ -555,38 +411,6 @@
     <t>Detailed</t>
   </si>
   <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fuel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oxidizer</t>
-    </r>
-  </si>
-  <si>
     <t>fuel injection temperature</t>
   </si>
   <si>
@@ -671,38 +495,6 @@
     <t>RP-1 (Kerosene)</t>
   </si>
   <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ex</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> percentage of second fuel in mixture (usually leave as 1)</t>
   </si>
   <si>
@@ -710,22 +502,6 @@
   </si>
   <si>
     <t xml:space="preserve">   Holistic Engine Logic Program (HELP!)</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stock</t>
-    </r>
   </si>
   <si>
     <t>diameter of round bar stock as reference for crude nozzles</t>
@@ -874,14 +650,127 @@
     <t>Number of total swirl elements</t>
   </si>
   <si>
-    <r>
-      <t>P</t>
+    <t>chamber pressure</t>
+  </si>
+  <si>
+    <t>ambient pressure (usually leave blank)</t>
+  </si>
+  <si>
+    <t>* if no fuel and/or injection temperature is set in the "detailed" section above, the program will assume your propellants are room temperature or, if a cryogen, at their boiling point</t>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>half</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>throat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pct</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oxidizer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -890,20 +779,140 @@
     </r>
   </si>
   <si>
-    <t>chamber pressure</t>
-  </si>
-  <si>
-    <t>ambient pressure (usually leave blank)</t>
-  </si>
-  <si>
-    <t>* if no fuel and/or injection temperature is set in the "detailed" section above, the program will assume your propellants are room temperature or, if a cryogen, at their boiling point</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>conv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fuel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fuel</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>chamber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,13 +1001,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
@@ -1009,28 +1011,6 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="5" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1047,6 +1027,94 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1197,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1211,53 +1279,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1288,22 +1319,105 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1671,29 +1785,29 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-    </row>
-    <row r="3" spans="1:3" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+    <row r="2" spans="1:3" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -1747,646 +1861,684 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FB38BB-BE64-4050-8878-0E451113B9D1}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7" style="13" customWidth="1"/>
-    <col min="5" max="5" width="41" style="12" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="13"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="45" style="15" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="13"/>
-    <col min="15" max="15" width="53.42578125" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="4.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11" style="24" customWidth="1"/>
+    <col min="4" max="4" width="7" style="24" customWidth="1"/>
+    <col min="5" max="5" width="41" style="30" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11" style="24" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="45" style="29" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="14" style="28" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="24"/>
+    <col min="15" max="15" width="53.42578125" style="29" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="18" t="s">
+      <c r="C7" s="54"/>
+      <c r="E7" s="29"/>
+      <c r="G7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="L7" s="18" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="L7" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="56" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="58">
+        <v>150</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="L9" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="58">
+        <v>14.7</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="59">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="59">
+        <v>100</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="60"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="31" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="58">
+        <v>1.2</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="59">
+        <v>20</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="G16" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="L16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" s="59">
+        <v>30</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="G17" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="59">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="59"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="L9" s="31" t="s">
+    </row>
+    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="59">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="63">
+        <v>0.3125</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="61">
+        <v>9.375E-2</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="L21" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="38"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
+    </row>
+    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="59">
+        <v>80</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="L23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="59"/>
+      <c r="N23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="L24" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" s="59"/>
+      <c r="N24" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="37"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="L26" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="38"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
+    </row>
+    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="37"/>
+      <c r="G27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="L27" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="M27" s="59">
+        <v>15</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="L28" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="62">
+        <v>0.125</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="L29" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="M29" s="59">
+        <v>1</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="L31" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+    </row>
+    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="5" t="s">
+      <c r="H32" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+    </row>
+    <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="L34" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+    </row>
+    <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+    </row>
+    <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+    </row>
+    <row r="37" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="L37" s="22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="1">
-        <v>100</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="G16" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="L16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="G17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+    </row>
+    <row r="38" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="G38" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="L21" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" s="29">
-        <v>80</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G23" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="L23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="L24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-    </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="L26" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-    </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E27"/>
-      <c r="G27" s="31" t="s">
+      <c r="H38" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+    </row>
+    <row r="39" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="G39" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
-      <c r="L27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="29">
-        <v>15</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="1" t="s">
+      <c r="H39" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+    </row>
+    <row r="40" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="G40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="L28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="L29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M29" s="29"/>
-      <c r="N29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="L31" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-    </row>
-    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-    </row>
-    <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="1" t="s">
+      <c r="H40" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="L34" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-    </row>
-    <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-    </row>
-    <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-    </row>
-    <row r="37" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="L37" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-    </row>
-    <row r="38" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="G38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-    </row>
-    <row r="39" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="G39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-    </row>
-    <row r="40" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="G40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2412,7 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2558753-C1A4-4F1A-A391-5DC27086ECDF}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -2436,23 +2588,23 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-    </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="20"/>
       <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
@@ -2479,7 +2631,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -2498,14 +2650,14 @@
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H9"/>
       <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2533,7 +2685,7 @@
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G12" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H12"/>
       <c r="I12" s="1" t="s">
@@ -2544,8 +2696,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="28" t="s">
-        <v>127</v>
+      <c r="G13" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="H13"/>
       <c r="I13" s="1" t="s">
@@ -2557,7 +2709,7 @@
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -2575,69 +2727,68 @@
     </row>
     <row r="17" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="29"/>
+      <c r="H23" s="12"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="27"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="9"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="29"/>
+      <c r="H25" s="12"/>
       <c r="J25" s="5"/>
     </row>
   </sheetData>
